--- a/tabela_infos_restaurante.xlsx
+++ b/tabela_infos_restaurante.xlsx
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Av.Brig. Luiz Antonio, 3935 - Jardins</t>
+          <t>Av. Brigadeiro Luís Antônio, 3935 - Jardim Paulista, São Paulo - SP, 01401-001</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
